--- a/data/trans_bre/P16A02-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A02-Estudios-trans_bre.xlsx
@@ -649,7 +649,7 @@
         <v>0.730060274610411</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.7867747565725316</v>
+        <v>0.7867747565725313</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>9.844881587156145</v>
+        <v>10.07063024263786</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>12.09188553539363</v>
+        <v>11.92709376482864</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>12.69565203376865</v>
+        <v>13.18854142062903</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>21.68555635655647</v>
+        <v>21.52040097556942</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.4996924262380656</v>
+        <v>0.5004755873243475</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4410018858066559</v>
+        <v>0.4404125148299788</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4893484120590369</v>
+        <v>0.4892108467803987</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.5964106002139061</v>
+        <v>0.5905333562419977</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>16.69309102070397</v>
+        <v>16.86745209116609</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>20.15185632828738</v>
+        <v>19.99845732381117</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>21.61177215723836</v>
+        <v>22.22843699506721</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>30.3757535275776</v>
+        <v>30.69184172751494</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.001997406309596</v>
+        <v>1.023195933996145</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8940364474376707</v>
+        <v>0.8873388815914151</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.004406236059319</v>
+        <v>1.014532865248093</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.023090068404108</v>
+        <v>1.027087908062736</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>4.339306629984333</v>
+        <v>4.425953853198402</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>10.70680300717495</v>
+        <v>10.37712371906762</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7.649062785942295</v>
+        <v>7.566507322476343</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>9.24845061563005</v>
+        <v>9.286614904200167</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3158085643274238</v>
+        <v>0.3338570006765662</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6156180426211929</v>
+        <v>0.6083886492878057</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4118440698734732</v>
+        <v>0.4136338156904067</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.3831695020009096</v>
+        <v>0.3831819728487334</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>9.371835673864858</v>
+        <v>9.174098226501162</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>16.24483251856287</v>
+        <v>16.0344762815255</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>12.83722534919015</v>
+        <v>12.9819476032394</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>14.46573685563351</v>
+        <v>14.53064015396739</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.8636608738194962</v>
+        <v>0.8737392216987725</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.081591265772276</v>
+        <v>1.074661251524892</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8001681035866345</v>
+        <v>0.8301930226754449</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.6911380337407362</v>
+        <v>0.6925689803600416</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>8.047029218528179</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9.511490990402937</v>
+        <v>9.511490990402946</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6527013868269604</v>
@@ -849,7 +849,7 @@
         <v>0.4394348981175967</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.4788969111806574</v>
+        <v>0.478896911180658</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.427382874517053</v>
+        <v>3.036287924726674</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>11.04343180196234</v>
+        <v>10.63721590394556</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.686925883223221</v>
+        <v>3.228832675350642</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4.788750757625915</v>
+        <v>5.014297959730349</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2696365193743954</v>
+        <v>0.2206407669915495</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8249738846719425</v>
+        <v>0.784701952452682</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1264280474407308</v>
+        <v>0.1551145453483844</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.2128946262152302</v>
+        <v>0.2125070622822775</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>12.38634410116071</v>
+        <v>12.07388893091207</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>21.34127766085372</v>
+        <v>21.42008182467</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13.28282147548452</v>
+        <v>14.03610307625142</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14.10422608638544</v>
+        <v>14.08147106191027</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.296464147025074</v>
+        <v>1.253680221978293</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.497898832295685</v>
+        <v>2.503210653331474</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8298495500138255</v>
+        <v>0.8852693357674137</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.8304957028624222</v>
+        <v>0.8072272518319242</v>
       </c>
     </row>
     <row r="13">
@@ -949,7 +949,7 @@
         <v>0.6541455403438248</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.6361378371838963</v>
+        <v>0.6361378371838962</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>8.005556235671209</v>
+        <v>8.009719072734732</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>13.56135750004145</v>
+        <v>13.58046669504391</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>10.17663689018528</v>
+        <v>10.12615314071411</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>12.98299751974366</v>
+        <v>13.24706294340239</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5445189552257447</v>
+        <v>0.5378297878699331</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7113735747768043</v>
+        <v>0.7254588649282211</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5120855747881365</v>
+        <v>0.5079395024556805</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.5207886539238653</v>
+        <v>0.5297918114244652</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>11.7522077349228</v>
+        <v>11.78248119447574</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>17.62351186290908</v>
+        <v>17.64479943986639</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>14.27745413941063</v>
+        <v>14.23731946274162</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>17.02929578813914</v>
+        <v>17.34242330606516</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.8935465162126015</v>
+        <v>0.9158673469311975</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.050040235606312</v>
+        <v>1.038551335424303</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7983373564729689</v>
+        <v>0.8103409750386857</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.7509297311098334</v>
+        <v>0.7733119536346198</v>
       </c>
     </row>
     <row r="16">
